--- a/biology/Botanique/Origan_lisse/Origan_lisse.xlsx
+++ b/biology/Botanique/Origan_lisse/Origan_lisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Origanum laevigatum
 Origanum laevigatum est une espèce de plantes herbacées vivaces de la famille des Lamiaceae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origan lisse se plait dans la rocaille ou il donne de riches bouquets de fleurs roses et pourpres (bractées) discrètement parfumées.
 Ses tiges mesurent une cinquantaine de centimètres de hauteur et la touffe (qui s'étale au fil des années) atteint une largeur équivalente.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plein soleil en terre drainante neutre à calcaire. Ne craint ni la chaleur de plein été ni le froid d'hiver. Peu sensible aux maladies.
 Se multiplie par semis ou bouture (recommandée en mai). Son système racinaire étant superficiel, mieux vaut ne pas déplacer un plant enraciné.
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « origan » est issu du grec ὀρίγανον / origanon[1], signifiant « qui se plaît sur la montagne », composé de ὄρος / oros « montagne » et γάνος / ganos « éclat, aspect riant »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « origan » est issu du grec ὀρίγανον / origanon, signifiant « qui se plaît sur la montagne », composé de ὄρος / oros « montagne » et γάνος / ganos « éclat, aspect riant ».
 </t>
         </is>
       </c>
